--- a/StructureDefinition-commcare-client-data.xlsx
+++ b/StructureDefinition-commcare-client-data.xlsx
@@ -346,7 +346,7 @@
     <t>eligibleForVaccine</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/eligible-for-vaccine}
+    <t xml:space="preserve">Extension {https://jembi.github.io/commcare-vaccine-ig//StructureDefinition/eligible-for-vaccine}
 </t>
   </si>
   <si>
@@ -363,7 +363,7 @@
     <t>areaType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/area-type}
+    <t xml:space="preserve">Extension {https://jembi.github.io/commcare-vaccine-ig//StructureDefinition/area-type}
 </t>
   </si>
   <si>
